--- a/LF/TAS/Senegal/TAS3/sn_lf_tas3_20305_2_partcipants.xlsx
+++ b/LF/TAS/Senegal/TAS3/sn_lf_tas3_20305_2_partcipants.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Senegal\TAS3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57FF385-6AE8-48A7-8916-4CDEAF7EF83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -339,26 +345,20 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Fev 2022) 2. TAS1 FL - Formulaire Participants V2</t>
-  </si>
-  <si>
-    <t>sn_lf_tas1_2_partcipants_202202_2</t>
-  </si>
-  <si>
     <t>French</t>
+  </si>
+  <si>
+    <t>sn_lf_tas3_20305_2_partcipants</t>
+  </si>
+  <si>
+    <t>(2023 Mai) 2. TAS1 FL - Formulaire Participants V2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,7 +371,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,180 +379,36 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,194 +427,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -768,281 +438,39 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1114,68 +542,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
-      <color rgb="00CCFFCC"/>
-      <color rgb="00CCECFF"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFCCECFF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1433,42 +821,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="$A3:$XFD6"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.6222222222222" customWidth="1"/>
-    <col min="2" max="2" width="16.5037037037037" customWidth="1"/>
-    <col min="3" max="3" width="42.6222222222222" customWidth="1"/>
-    <col min="4" max="4" width="41.2518518518519" customWidth="1"/>
-    <col min="5" max="5" width="47.5037037037037" customWidth="1"/>
-    <col min="6" max="6" width="47.3777777777778" customWidth="1"/>
-    <col min="7" max="7" width="12.6222222222222" customWidth="1"/>
-    <col min="8" max="8" width="16.8740740740741" customWidth="1"/>
-    <col min="9" max="10" width="29.5037037037037" customWidth="1"/>
-    <col min="11" max="11" width="20.3777777777778" customWidth="1"/>
-    <col min="12" max="12" width="39.8740740740741" customWidth="1"/>
-    <col min="13" max="13" width="9.74814814814815" customWidth="1"/>
-    <col min="14" max="14" width="35.3777777777778" customWidth="1"/>
-    <col min="15" max="15" width="13.8740740740741" customWidth="1"/>
-    <col min="16" max="16" width="36.6222222222222" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="4" max="4" width="41.25" customWidth="1"/>
+    <col min="5" max="5" width="47.5" customWidth="1"/>
+    <col min="6" max="6" width="47.375" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="10" width="29.5" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="12" max="12" width="39.875" customWidth="1"/>
+    <col min="13" max="13" width="9.75" customWidth="1"/>
+    <col min="14" max="14" width="35.375" customWidth="1"/>
+    <col min="15" max="15" width="13.875" customWidth="1"/>
+    <col min="16" max="16" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="18" spans="1:16">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="37.5">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="57" spans="1:16">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="63">
       <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
@@ -1556,7 +943,7 @@
       <c r="O2" s="16"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:16">
+    <row r="3" spans="1:16" s="3" customFormat="1">
       <c r="A3" s="12" t="s">
         <v>26</v>
       </c>
@@ -1584,7 +971,7 @@
       <c r="O3" s="16"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:16">
+    <row r="4" spans="1:16" s="3" customFormat="1">
       <c r="A4" s="12" t="s">
         <v>26</v>
       </c>
@@ -1612,7 +999,7 @@
       <c r="O4" s="16"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:16">
+    <row r="5" spans="1:16" s="3" customFormat="1">
       <c r="A5" s="12" t="s">
         <v>26</v>
       </c>
@@ -1640,7 +1027,7 @@
       <c r="O5" s="16"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:15">
+    <row r="6" spans="1:16" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1666,7 +1053,7 @@
       <c r="N6" s="28"/>
       <c r="O6" s="28"/>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:16">
+    <row r="7" spans="1:16" s="3" customFormat="1">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
@@ -1694,7 +1081,7 @@
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:16">
+    <row r="8" spans="1:16" s="3" customFormat="1">
       <c r="A8" s="12" t="s">
         <v>43</v>
       </c>
@@ -1724,7 +1111,7 @@
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
     </row>
-    <row r="9" s="9" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
@@ -1760,7 +1147,7 @@
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="28.5" spans="1:16">
+    <row r="10" spans="1:16" s="3" customFormat="1" ht="31.5">
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
@@ -1796,7 +1183,7 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:16">
+    <row r="11" spans="1:16" s="3" customFormat="1">
       <c r="A11" s="12" t="s">
         <v>60</v>
       </c>
@@ -1826,7 +1213,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:16">
+    <row r="12" spans="1:16" s="3" customFormat="1">
       <c r="A12" s="12" t="s">
         <v>64</v>
       </c>
@@ -1856,7 +1243,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" s="3" customFormat="1" ht="42.75" spans="1:16">
+    <row r="13" spans="1:16" s="3" customFormat="1" ht="47.25">
       <c r="A13" s="12" t="s">
         <v>26</v>
       </c>
@@ -1890,7 +1277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="28.5" spans="1:16">
+    <row r="14" spans="1:16" s="3" customFormat="1" ht="31.5">
       <c r="A14" s="12" t="s">
         <v>74</v>
       </c>
@@ -1918,7 +1305,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:16">
+    <row r="15" spans="1:16" s="3" customFormat="1">
       <c r="A15" s="12" t="s">
         <v>79</v>
       </c>
@@ -1944,7 +1331,7 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:16">
+    <row r="16" spans="1:16" s="3" customFormat="1">
       <c r="A16" s="12" t="s">
         <v>83</v>
       </c>
@@ -1991,27 +1378,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.3777777777778" customWidth="1"/>
-    <col min="2" max="2" width="39.6222222222222" customWidth="1"/>
-    <col min="3" max="3" width="23.7481481481481" customWidth="1"/>
-    <col min="4" max="4" width="20.8740740740741" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="39.625" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2029,7 +1413,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>88</v>
       </c>
@@ -2043,7 +1427,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>88</v>
       </c>
@@ -2057,7 +1441,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>93</v>
       </c>
@@ -2071,7 +1455,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>93</v>
       </c>
@@ -2085,7 +1469,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>98</v>
       </c>
@@ -2099,7 +1483,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>98</v>
       </c>
@@ -2114,28 +1498,27 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A9:C54">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C54">
     <sortCondition ref="B9:B54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="49.6222222222222" customWidth="1"/>
-    <col min="2" max="2" width="28.6222222222222" customWidth="1"/>
-    <col min="3" max="3" width="11.1259259259259" customWidth="1"/>
+    <col min="1" max="1" width="49.625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2153,22 +1536,21 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="30">
+        <v>20210419</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>107</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2">
-        <v>20210419</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/LF/TAS/Senegal/TAS3/sn_lf_tas3_20305_2_partcipants.xlsx
+++ b/LF/TAS/Senegal/TAS3/sn_lf_tas3_20305_2_partcipants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Senegal\TAS3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57FF385-6AE8-48A7-8916-4CDEAF7EF83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3309FB9-E595-4B14-94A0-EC5D324A9305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -348,10 +348,10 @@
     <t>French</t>
   </si>
   <si>
-    <t>sn_lf_tas3_20305_2_partcipants</t>
-  </si>
-  <si>
-    <t>(2023 Mai) 2. TAS1 FL - Formulaire Participants V2</t>
+    <t>(2023 Mai) 2. TAS(1-3) FL - Formulaire Participants V2.1</t>
+  </si>
+  <si>
+    <t>sn_lf_tas3_20305_2_partcipants_v2_1</t>
   </si>
 </sst>
 </file>
@@ -829,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1509,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1537,10 +1537,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>108</v>
       </c>
       <c r="C2" s="30">
         <v>20210419</v>
